--- a/datasets/hiring.xlsx
+++ b/datasets/hiring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\AI-ML_Course_py_files\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB45C8-4699-4408-BC08-5DB00D52A1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A9A83-86E4-4FEE-BE64-0B91047C97FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>experience</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>six</t>
   </si>
 </sst>
 </file>
@@ -357,7 +375,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,8 +400,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -396,7 +414,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -410,8 +428,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -435,7 +453,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -449,8 +467,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -460,8 +478,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -474,7 +492,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -488,8 +506,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
